--- a/April'21/11.04.2021/Hello Daffodils Balance Transfer April'2021.xlsx
+++ b/April'21/11.04.2021/Hello Daffodils Balance Transfer April'2021.xlsx
@@ -7,8 +7,7 @@
     <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7695" tabRatio="574"/>
   </bookViews>
   <sheets>
-    <sheet name="28" sheetId="2" r:id="rId1"/>
-    <sheet name="29" sheetId="3" r:id="rId2"/>
+    <sheet name="Market Due" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -234,9 +233,6 @@
     <t>Distributor:Banglalink Digidal Communication Ltd.</t>
   </si>
   <si>
-    <t>28.03.2021</t>
-  </si>
-  <si>
     <t>31.03.2021</t>
   </si>
   <si>
@@ -262,6 +258,15 @@
   </si>
   <si>
     <t>Rijvi</t>
+  </si>
+  <si>
+    <t>08.04.2021</t>
+  </si>
+  <si>
+    <t>10.04.2021</t>
+  </si>
+  <si>
+    <t>11.04.2021</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1378,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1714,7 +1719,7 @@
     </row>
     <row r="6" spans="1:60" ht="12.6" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1">
         <v>186532</v>
@@ -1785,7 +1790,7 @@
     </row>
     <row r="7" spans="1:60" ht="12.6" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>258444</v>
@@ -1856,7 +1861,7 @@
     </row>
     <row r="8" spans="1:60" ht="12.6" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>338684</v>
@@ -1927,7 +1932,7 @@
     </row>
     <row r="9" spans="1:60" ht="12.6" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1">
         <v>190093</v>
@@ -1998,7 +2003,7 @@
     </row>
     <row r="10" spans="1:60" ht="12" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1">
         <v>182039</v>
@@ -2069,7 +2074,7 @@
     </row>
     <row r="11" spans="1:60" ht="12.6" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1">
         <v>207570</v>
@@ -2139,13 +2144,19 @@
       <c r="BH11" s="6"/>
     </row>
     <row r="12" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1">
+        <v>306323</v>
+      </c>
+      <c r="C12" s="1">
+        <v>255702</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>255702</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="29"/>
@@ -2204,13 +2215,19 @@
       <c r="BH12" s="6"/>
     </row>
     <row r="13" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="1">
+        <v>328642</v>
+      </c>
+      <c r="C13" s="1">
+        <v>339962</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>339962</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="29"/>
@@ -2269,13 +2286,19 @@
       <c r="BH13" s="6"/>
     </row>
     <row r="14" spans="1:60" ht="12.6" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1">
+        <v>218633</v>
+      </c>
+      <c r="C14" s="1">
+        <v>249047</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>249047</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="24"/>
@@ -3573,11 +3596,11 @@
       </c>
       <c r="B34" s="1">
         <f>SUM(B6:B33)</f>
-        <v>1363362</v>
+        <v>2216960</v>
       </c>
       <c r="C34" s="1">
         <f>SUM(C6:C33)</f>
-        <v>1379264</v>
+        <v>2223975</v>
       </c>
       <c r="D34" s="1">
         <f>SUM(D6:D33)</f>
@@ -3585,11 +3608,11 @@
       </c>
       <c r="E34" s="1">
         <f>SUM(E6:E33)</f>
-        <v>1379264</v>
+        <v>2223975</v>
       </c>
       <c r="F34" s="46">
         <f>B34-E34</f>
-        <v>-15902</v>
+        <v>-7015</v>
       </c>
       <c r="G34" s="92"/>
       <c r="H34" s="93"/>
@@ -3852,7 +3875,7 @@
         <v>41870</v>
       </c>
       <c r="D38" s="89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3916,10 +3939,10 @@
         <v>56</v>
       </c>
       <c r="C39" s="88">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="D39" s="89" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4109,7 +4132,7 @@
     </row>
     <row r="42" spans="1:60" ht="12.6" customHeight="1">
       <c r="A42" s="86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="89" t="s">
         <v>56</v>
@@ -4118,7 +4141,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4600,10 +4623,10 @@
         <v>58</v>
       </c>
       <c r="C50" s="114">
-        <v>19823</v>
+        <v>21067</v>
       </c>
       <c r="D50" s="76" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="55"/>
@@ -4661,18 +4684,10 @@
       <c r="BH50" s="6"/>
     </row>
     <row r="51" spans="1:60" ht="12" customHeight="1">
-      <c r="A51" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="114">
-        <v>1810</v>
-      </c>
-      <c r="D51" s="75" t="s">
-        <v>69</v>
-      </c>
+      <c r="A51" s="76"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="75"/>
       <c r="E51" s="2"/>
       <c r="F51" s="55"/>
       <c r="G51" s="55"/>
@@ -4736,10 +4751,10 @@
         <v>58</v>
       </c>
       <c r="C52" s="114">
-        <v>1100</v>
+        <v>14250</v>
       </c>
       <c r="D52" s="76" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="55"/>
@@ -4804,10 +4819,10 @@
         <v>58</v>
       </c>
       <c r="C53" s="114">
-        <v>15330</v>
+        <v>15789</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="58"/>
@@ -4932,10 +4947,10 @@
         <v>58</v>
       </c>
       <c r="C55" s="114">
-        <v>7040</v>
+        <v>6040</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="58"/>
@@ -5003,7 +5018,7 @@
         <v>2547</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="58"/>
@@ -5071,7 +5086,7 @@
         <v>5900</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="58"/>
@@ -5201,7 +5216,7 @@
         <v>300</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="58"/>
@@ -5268,10 +5283,10 @@
         <v>58</v>
       </c>
       <c r="C60" s="115">
-        <v>-93</v>
+        <v>9037</v>
       </c>
       <c r="D60" s="76" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="56"/>
@@ -5338,10 +5353,10 @@
         <v>58</v>
       </c>
       <c r="C61" s="114">
-        <v>8400</v>
+        <v>7400</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="58"/>
@@ -5411,7 +5426,7 @@
         <v>1297</v>
       </c>
       <c r="D62" s="77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
@@ -5545,7 +5560,7 @@
         <v>1689</v>
       </c>
       <c r="D64" s="79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="49"/>
@@ -5612,10 +5627,10 @@
         <v>58</v>
       </c>
       <c r="C65" s="114">
-        <v>32171</v>
+        <v>9850</v>
       </c>
       <c r="D65" s="79" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="56"/>
@@ -5682,10 +5697,10 @@
         <v>58</v>
       </c>
       <c r="C66" s="114">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="D66" s="79" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="49" t="s">
@@ -5757,7 +5772,7 @@
         <v>573</v>
       </c>
       <c r="D67" s="76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="49"/>
@@ -5827,7 +5842,7 @@
         <v>955</v>
       </c>
       <c r="D68" s="76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="18"/>
@@ -5888,16 +5903,16 @@
     </row>
     <row r="69" spans="1:60" ht="12.75" customHeight="1">
       <c r="A69" s="75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="75" t="s">
         <v>58</v>
       </c>
       <c r="C69" s="114">
-        <v>1973</v>
+        <v>11408</v>
       </c>
       <c r="D69" s="76" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="131" t="s">
@@ -8431,7 +8446,7 @@
       <c r="B105" s="130"/>
       <c r="C105" s="118">
         <f>SUM(C38:C104)</f>
-        <v>151185</v>
+        <v>160072</v>
       </c>
       <c r="D105" s="23"/>
       <c r="F105" s="102"/>
@@ -8564,7 +8579,7 @@
       <c r="B107" s="128"/>
       <c r="C107" s="108">
         <f>C105+H128-J128</f>
-        <v>151185</v>
+        <v>160072</v>
       </c>
       <c r="D107" s="21"/>
       <c r="F107" s="101"/>
@@ -10937,18 +10952,4 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>